--- a/analysis-wrapup.xlsx
+++ b/analysis-wrapup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jone30rw/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Storage/jone30rw/workspaces/code-readability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD09412-568A-9144-AFAB-2DD770AA6CAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542F28A0-5371-7145-A757-7021DDBE698F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -1657,6 +1657,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1401759168"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3071,6 +3072,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1407310544"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -12361,8 +12363,8 @@
   </sheetPr>
   <dimension ref="C2:M27"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J3"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13199,8 +13201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E3F334-F893-244D-B6A0-30E9074FBE30}">
   <dimension ref="C3:D27"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13422,8 +13424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DA458C-818E-4044-907A-D1AAD3801EBA}">
   <dimension ref="C3:BG32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="BF1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="BP30" sqref="BP30"/>
+    <sheetView showGridLines="0" topLeftCell="BF2" zoomScale="159" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="BR13" sqref="BR13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16926,7 +16928,7 @@
   <dimension ref="C3:D32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17193,8 +17195,8 @@
   </sheetPr>
   <dimension ref="C2:G20"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G3"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17549,8 +17551,8 @@
   </sheetPr>
   <dimension ref="C2:O24"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:O3"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18483,8 +18485,8 @@
   </sheetPr>
   <dimension ref="C2:D24"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18691,8 +18693,8 @@
   </sheetPr>
   <dimension ref="C2:D24"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D24"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22201,8 +22203,8 @@
   </sheetPr>
   <dimension ref="C2:L34"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G3"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22774,8 +22776,8 @@
   </sheetPr>
   <dimension ref="C2:D34"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
